--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -147,7 +147,7 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>Results Arrive</t>
+    <t>Results Delivery</t>
   </si>
   <si>
     <t>rarrive</t>

--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>type</t>
   </si>
@@ -87,7 +87,7 @@
     <t>srepeat</t>
   </si>
   <si>
-    <t>New Result</t>
+    <t>New Scan</t>
   </si>
   <si>
     <t>barcode</t>
@@ -248,10 +248,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -260,7 +256,11 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -418,16 +418,14 @@
       <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -533,7 +531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -147,7 +147,7 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>Results Delivery</t>
+    <t>4. Results Delivery</t>
   </si>
   <si>
     <t>rarrive</t>

--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -93,10 +93,10 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>labid</t>
-  </si>
-  <si>
-    <t>Lab Barcode</t>
+    <t>stid</t>
+  </si>
+  <si>
+    <t>STT Barcode</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -228,6 +228,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -392,10 +395,10 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -442,29 +445,29 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
@@ -524,7 +527,7 @@
     <row r="9">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -539,18 +542,18 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>45</v>
       </c>
     </row>

--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>type</t>
   </si>
@@ -42,30 +42,18 @@
     <t>simserial</t>
   </si>
   <si>
-    <t>select_one rider</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>Rider Name</t>
+    <t>select_one region</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>quick search('riders')</t>
-  </si>
-  <si>
-    <t>select_one region</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>quick search('regions')</t>
   </si>
   <si>
@@ -87,7 +75,7 @@
     <t>srepeat</t>
   </si>
   <si>
-    <t>New Scan</t>
+    <t>New STT Barcode Scans</t>
   </si>
   <si>
     <t>barcode</t>
@@ -271,6 +259,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.57"/>
+    <col customWidth="1" min="3" max="3" width="20.86"/>
     <col customWidth="1" min="5" max="5" width="45.0"/>
     <col customWidth="1" min="6" max="6" width="14.71"/>
   </cols>
@@ -359,10 +348,10 @@
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -371,57 +360,39 @@
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -437,7 +408,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -471,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -543,18 +514,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>type</t>
   </si>
@@ -48,13 +48,13 @@
     <t>region</t>
   </si>
   <si>
-    <t>Region</t>
+    <t>Facility Lab</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>quick search('regions')</t>
+    <t>quick search('labs')</t>
   </si>
   <si>
     <t>select_one facility</t>
@@ -102,18 +102,15 @@
     <t>list name</t>
   </si>
   <si>
-    <t>region_key</t>
+    <t>lab_key</t>
+  </si>
+  <si>
+    <t>lab</t>
   </si>
   <si>
     <t>facility_key</t>
   </si>
   <si>
-    <t>rider</t>
-  </si>
-  <si>
-    <t>rider_key</t>
-  </si>
-  <si>
     <t>stype</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>4. Results Delivery</t>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -208,9 +208,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +217,15 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -230,6 +236,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,16 +330,16 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
@@ -339,60 +348,60 @@
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -407,98 +416,92 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
+      <c r="A4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
+      <c r="A5" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -513,19 +516,25 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>41</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2.016041301E9</v>
       </c>
     </row>
   </sheetData>

--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -66,7 +66,7 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>quick search('facilities', 'matches', 'region', ${region})</t>
+    <t>quick search('facilities', 'matches', 'lab', ${region})</t>
   </si>
   <si>
     <t>begin repeat</t>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -200,6 +200,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -336,10 +339,10 @@
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
@@ -354,54 +357,54 @@
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -416,41 +419,41 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -461,7 +464,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -483,7 +486,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -494,14 +497,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -516,10 +519,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -527,14 +530,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17">
-        <v>2.016041301E9</v>
+      <c r="C2" s="18">
+        <v>2.016050201E9</v>
       </c>
     </row>
   </sheetData>

--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -18,31 +18,34 @@
     <t>list name</t>
   </si>
   <si>
+    <t>form_title</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
+    <t>4. Results Delivery</t>
   </si>
   <si>
     <t>lab_key</t>
   </si>
   <si>
-    <t>4. Results Delivery</t>
+    <t>rarrive</t>
   </si>
   <si>
     <t>lab</t>
@@ -63,9 +66,6 @@
     <t>condition</t>
   </si>
   <si>
-    <t>rarrive</t>
-  </si>
-  <si>
     <t>cond_key</t>
   </si>
   <si>
@@ -135,7 +135,7 @@
     <t>STT Barcode</t>
   </si>
   <si>
-    <t>regex(., '[\w\d]{9}\d{3}')</t>
+    <t>regex(., '^[\d\w]{9}\d{3}$')</t>
   </si>
   <si>
     <t>Scanned barcode does not match the required pattern</t>
@@ -169,11 +169,11 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -210,40 +210,40 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -288,24 +288,24 @@
     <col customWidth="1" min="1" max="1" width="25.57"/>
     <col customWidth="1" min="3" max="3" width="20.86"/>
     <col customWidth="1" min="5" max="5" width="45.0"/>
-    <col customWidth="1" min="6" max="6" width="19.71"/>
+    <col customWidth="1" min="6" max="6" width="21.57"/>
     <col customWidth="1" min="7" max="7" width="45.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -316,48 +316,48 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -366,16 +366,16 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -384,10 +384,10 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -399,20 +399,20 @@
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -455,83 +455,83 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -546,25 +546,25 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10">
-        <v>2.016120801E9</v>
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2.016120802E9</v>
       </c>
     </row>
   </sheetData>

--- a/rarrive.xlsx
+++ b/rarrive.xlsx
@@ -30,46 +30,46 @@
     <t>label</t>
   </si>
   <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>lab_key</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>facility_key</t>
+  </si>
+  <si>
+    <t>stype</t>
+  </si>
+  <si>
+    <t>stype_key</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>region</t>
+    <t>cond_key</t>
+  </si>
+  <si>
+    <t>cond</t>
   </si>
   <si>
     <t>4. Results Delivery</t>
   </si>
   <si>
-    <t>lab_key</t>
-  </si>
-  <si>
     <t>rarrive</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>facility_key</t>
-  </si>
-  <si>
-    <t>stype</t>
-  </si>
-  <si>
-    <t>stype_key</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>cond_key</t>
-  </si>
-  <si>
-    <t>cond</t>
   </si>
   <si>
     <t>required</t>
@@ -169,11 +169,11 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -210,40 +210,40 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -293,22 +293,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -316,48 +316,48 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -366,16 +366,16 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -384,10 +384,10 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -399,10 +399,10 @@
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -412,7 +412,7 @@
       <c r="F9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -455,83 +455,83 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -546,25 +546,25 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2.016120802E9</v>
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2.016121501E9</v>
       </c>
     </row>
   </sheetData>
